--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Gast-Cckbr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Gast-Cckbr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -77,12 +77,6 @@
   </si>
   <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
   <si>
     <t>Gast</t>
@@ -449,7 +443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,13 +516,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
         <v>23</v>
-      </c>
-      <c r="C2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -537,356 +531,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>1.439228</v>
+        <v>1.303574666666667</v>
       </c>
       <c r="H2">
-        <v>4.317684</v>
+        <v>3.910724</v>
       </c>
       <c r="I2">
-        <v>0.6719740105380644</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.717832936844865</v>
+        <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.09168033333333332</v>
+        <v>0.4778266666666666</v>
       </c>
       <c r="N2">
-        <v>0.275041</v>
+        <v>1.43348</v>
       </c>
       <c r="O2">
-        <v>0.1609819253026448</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0.1609819253026448</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.1319489027826666</v>
+        <v>0.6228827377244445</v>
       </c>
       <c r="R2">
-        <v>1.187540125044</v>
+        <v>5.60594463952</v>
       </c>
       <c r="S2">
-        <v>0.1081756699697573</v>
+        <v>1</v>
       </c>
       <c r="T2">
-        <v>0.1155581282189382</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20">
-      <c r="A3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-      <c r="F3">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G3">
-        <v>1.439228</v>
-      </c>
-      <c r="H3">
-        <v>4.317684</v>
-      </c>
-      <c r="I3">
-        <v>0.6719740105380644</v>
-      </c>
-      <c r="J3">
-        <v>0.717832936844865</v>
-      </c>
-      <c r="K3">
-        <v>3</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>0.4778266666666666</v>
-      </c>
-      <c r="N3">
-        <v>1.43348</v>
-      </c>
-      <c r="O3">
-        <v>0.8390180746973551</v>
-      </c>
-      <c r="P3">
-        <v>0.8390180746973552</v>
-      </c>
-      <c r="Q3">
-        <v>0.6877015178133332</v>
-      </c>
-      <c r="R3">
-        <v>6.189313660319999</v>
-      </c>
-      <c r="S3">
-        <v>0.563798340568307</v>
-      </c>
-      <c r="T3">
-        <v>0.6022748086259269</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
-      <c r="A4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G4">
-        <v>0.2920766666666667</v>
-      </c>
-      <c r="H4">
-        <v>0.87623</v>
-      </c>
-      <c r="I4">
-        <v>0.1363702825991361</v>
-      </c>
-      <c r="J4">
-        <v>0.1456768847029046</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M4">
-        <v>0.09168033333333332</v>
-      </c>
-      <c r="N4">
-        <v>0.275041</v>
-      </c>
-      <c r="O4">
-        <v>0.1609819253026448</v>
-      </c>
-      <c r="P4">
-        <v>0.1609819253026448</v>
-      </c>
-      <c r="Q4">
-        <v>0.02677768615888888</v>
-      </c>
-      <c r="R4">
-        <v>0.24099917543</v>
-      </c>
-      <c r="S4">
-        <v>0.02195315064687468</v>
-      </c>
-      <c r="T4">
-        <v>0.023451345371565</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G5">
-        <v>0.2920766666666667</v>
-      </c>
-      <c r="H5">
-        <v>0.87623</v>
-      </c>
-      <c r="I5">
-        <v>0.1363702825991361</v>
-      </c>
-      <c r="J5">
-        <v>0.1456768847029046</v>
-      </c>
-      <c r="K5">
-        <v>3</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>0.4778266666666666</v>
-      </c>
-      <c r="N5">
-        <v>1.43348</v>
-      </c>
-      <c r="O5">
-        <v>0.8390180746973551</v>
-      </c>
-      <c r="P5">
-        <v>0.8390180746973552</v>
-      </c>
-      <c r="Q5">
-        <v>0.1395620200444444</v>
-      </c>
-      <c r="R5">
-        <v>1.2560581804</v>
-      </c>
-      <c r="S5">
-        <v>0.1144171319522614</v>
-      </c>
-      <c r="T5">
-        <v>0.1222255393313396</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0.5</v>
-      </c>
-      <c r="G6">
-        <v>0.4104865</v>
-      </c>
-      <c r="H6">
-        <v>0.820973</v>
-      </c>
-      <c r="I6">
-        <v>0.1916557068627995</v>
-      </c>
-      <c r="J6">
-        <v>0.1364901784522303</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M6">
-        <v>0.09168033333333332</v>
-      </c>
-      <c r="N6">
-        <v>0.275041</v>
-      </c>
-      <c r="O6">
-        <v>0.1609819253026448</v>
-      </c>
-      <c r="P6">
-        <v>0.1609819253026448</v>
-      </c>
-      <c r="Q6">
-        <v>0.03763353914883333</v>
-      </c>
-      <c r="R6">
-        <v>0.225801234893</v>
-      </c>
-      <c r="S6">
-        <v>0.03085310468601277</v>
-      </c>
-      <c r="T6">
-        <v>0.0219724517121416</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0.5</v>
-      </c>
-      <c r="G7">
-        <v>0.4104865</v>
-      </c>
-      <c r="H7">
-        <v>0.820973</v>
-      </c>
-      <c r="I7">
-        <v>0.1916557068627995</v>
-      </c>
-      <c r="J7">
-        <v>0.1364901784522303</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>0.4778266666666666</v>
-      </c>
-      <c r="N7">
-        <v>1.43348</v>
-      </c>
-      <c r="O7">
-        <v>0.8390180746973551</v>
-      </c>
-      <c r="P7">
-        <v>0.8390180746973552</v>
-      </c>
-      <c r="Q7">
-        <v>0.1961413960066666</v>
-      </c>
-      <c r="R7">
-        <v>1.17684837604</v>
-      </c>
-      <c r="S7">
-        <v>0.1608026021767867</v>
-      </c>
-      <c r="T7">
-        <v>0.1145177267400887</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
